--- a/001 Project/002 Meadow/003 excel read/text.xlsx
+++ b/001 Project/002 Meadow/003 excel read/text.xlsx
@@ -1,62 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12225" windowWidth="28800" xWindow="0" yWindow="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
-</workbook>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-</styleSheet>
-</file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
@@ -873,473 +814,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>nowy 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Warszawa 23</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>nowy 2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Warszawa 24</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nowy 3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Warszawa 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>nowy 4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Warszawa 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nowy 5</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Warszawa 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>nowy 6</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Warszawa 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>nowy 7</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Warszawa 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>nowy 8</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Warszawa 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>nowy 9</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Warszawa 31</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>nowy 10</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Warszawa 32</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>nowy 11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Warszawa 33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>nowy 12</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Warszawa 34</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>nowy 13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warszawa 35</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>nowy 14</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Warszawa 36</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>nowy 15</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Warszawa 37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>nowy 16</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Warszawa 38</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>17</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>nowy 17</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Warszawa 39</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>18</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>nowy 3</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Warszawa 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>19</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>nowy 4</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Warszawa 41</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>nowy 5</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Warszawa 42</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>nowy 6</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Warszawa 43</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>nowy 7</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Warszawa 44</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>nowy 8</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Warszawa 45</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>24</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>nowy 9</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Warszawa 46</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>25</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>nowy 10</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Warszawa 47</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>26</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>nowy 11</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Warszawa 48</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>27</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>nowy 12</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Warszawa 49</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>28</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>nowy 13</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Warszawa 50</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>29</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>nowy 14</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Warszawa 51</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>30</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>nowy 15</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Warszawa 52</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>